--- a/data/pca/factorExposure/factorExposure_2018-12-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.08055216714963613</v>
+        <v>0.05323642960246962</v>
       </c>
       <c r="C2">
-        <v>-0.05341633617520656</v>
+        <v>0.03166667018917101</v>
       </c>
       <c r="D2">
-        <v>0.0660011489736102</v>
+        <v>0.009102416272187178</v>
       </c>
       <c r="E2">
-        <v>0.001537899569229168</v>
+        <v>-0.03479662598813851</v>
       </c>
       <c r="F2">
-        <v>0.1174931693815399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1147169785807154</v>
+      </c>
+      <c r="G2">
+        <v>0.0508560901867358</v>
+      </c>
+      <c r="H2">
+        <v>0.06911402220198123</v>
+      </c>
+      <c r="I2">
+        <v>-0.114697445760179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.1644544149816013</v>
+        <v>0.1253983610590345</v>
       </c>
       <c r="C3">
-        <v>0.05575284929630431</v>
+        <v>0.06612320830723385</v>
       </c>
       <c r="D3">
-        <v>0.1552433401990412</v>
+        <v>-0.02259840293707002</v>
       </c>
       <c r="E3">
-        <v>0.06546825784614414</v>
+        <v>0.03456934930259402</v>
       </c>
       <c r="F3">
-        <v>0.3875361749282488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3869402285762049</v>
+      </c>
+      <c r="G3">
+        <v>0.2623180548975933</v>
+      </c>
+      <c r="H3">
+        <v>0.1175240196586248</v>
+      </c>
+      <c r="I3">
+        <v>-0.3886066693113767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.07480766812961329</v>
+        <v>0.05915363403420964</v>
       </c>
       <c r="C4">
-        <v>-0.01736041932382492</v>
+        <v>0.03955285533813785</v>
       </c>
       <c r="D4">
-        <v>0.06859824338969769</v>
+        <v>-0.02751336535236835</v>
       </c>
       <c r="E4">
-        <v>0.05468206781973426</v>
+        <v>-0.04443227043180356</v>
       </c>
       <c r="F4">
-        <v>0.06263400679184451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07512837542062566</v>
+      </c>
+      <c r="G4">
+        <v>0.01960055737455525</v>
+      </c>
+      <c r="H4">
+        <v>0.04755269052002604</v>
+      </c>
+      <c r="I4">
+        <v>-0.06877532716715683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.0008871522565998605</v>
+        <v>0.02794958016132464</v>
       </c>
       <c r="C6">
-        <v>0.0015836927438195</v>
+        <v>0.01387742367068374</v>
       </c>
       <c r="D6">
-        <v>-0.0009783290879452702</v>
+        <v>-0.008341505184559136</v>
       </c>
       <c r="E6">
-        <v>-0.001832604278732493</v>
+        <v>-0.008775548999942978</v>
       </c>
       <c r="F6">
-        <v>-0.002597127067194889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01139915984421247</v>
+      </c>
+      <c r="G6">
+        <v>-0.01847598617248907</v>
+      </c>
+      <c r="H6">
+        <v>-0.0122511599852925</v>
+      </c>
+      <c r="I6">
+        <v>-0.008956639375033373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03707138121728554</v>
+        <v>0.03175130053635258</v>
       </c>
       <c r="C7">
-        <v>-0.01979511614865745</v>
+        <v>0.003271271235703534</v>
       </c>
       <c r="D7">
-        <v>0.04905991844404795</v>
+        <v>-0.03710846834203917</v>
       </c>
       <c r="E7">
-        <v>0.01016092729441026</v>
+        <v>-0.02853111001042193</v>
       </c>
       <c r="F7">
-        <v>0.08478395671465128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05528835530325799</v>
+      </c>
+      <c r="G7">
+        <v>0.04974243971625684</v>
+      </c>
+      <c r="H7">
+        <v>0.009988558646179757</v>
+      </c>
+      <c r="I7">
+        <v>-0.04601901934125921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.03624775825532871</v>
+        <v>0.01573964073994408</v>
       </c>
       <c r="C8">
-        <v>0.0061080572277648</v>
+        <v>0.03635593123575992</v>
       </c>
       <c r="D8">
-        <v>0.0569872772264038</v>
+        <v>-0.02324850170103191</v>
       </c>
       <c r="E8">
-        <v>0.0495447128871008</v>
+        <v>-0.01730410675267131</v>
       </c>
       <c r="F8">
-        <v>0.06528329807809469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0720180974379062</v>
+      </c>
+      <c r="G8">
+        <v>0.04392649674637227</v>
+      </c>
+      <c r="H8">
+        <v>0.0432917377790501</v>
+      </c>
+      <c r="I8">
+        <v>-0.06524370576335881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.06237277480526668</v>
+        <v>0.05068615889134934</v>
       </c>
       <c r="C9">
-        <v>-0.02402495230098662</v>
+        <v>0.02892925776644558</v>
       </c>
       <c r="D9">
-        <v>0.05387363053405277</v>
+        <v>-0.02678368790337635</v>
       </c>
       <c r="E9">
-        <v>0.06536290431505232</v>
+        <v>-0.03743288289369154</v>
       </c>
       <c r="F9">
-        <v>0.05207258539743709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07926588316214525</v>
+      </c>
+      <c r="G9">
+        <v>0.01850688993198177</v>
+      </c>
+      <c r="H9">
+        <v>0.05021003912926809</v>
+      </c>
+      <c r="I9">
+        <v>-0.04410006832410374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.03651331731490877</v>
+        <v>0.0554310035829585</v>
       </c>
       <c r="C10">
-        <v>-0.06567689057901711</v>
+        <v>-0.1519348218073098</v>
       </c>
       <c r="D10">
-        <v>-0.1279397432991027</v>
+        <v>0.06051635208059267</v>
       </c>
       <c r="E10">
-        <v>-0.07421569968502591</v>
+        <v>0.04618443376293004</v>
       </c>
       <c r="F10">
-        <v>0.06289537638952944</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04901490264201139</v>
+      </c>
+      <c r="G10">
+        <v>0.01640004087397083</v>
+      </c>
+      <c r="H10">
+        <v>0.03939153785684032</v>
+      </c>
+      <c r="I10">
+        <v>-0.02541006300196701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05013127744297487</v>
+        <v>0.04240411410670917</v>
       </c>
       <c r="C11">
-        <v>-0.0001401128414265421</v>
+        <v>0.0364354312619613</v>
       </c>
       <c r="D11">
-        <v>0.03294814717050783</v>
+        <v>-0.005894008578240984</v>
       </c>
       <c r="E11">
-        <v>0.009767227156745851</v>
+        <v>-0.01240160895927078</v>
       </c>
       <c r="F11">
-        <v>0.04759269513911527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03897121378733014</v>
+      </c>
+      <c r="G11">
+        <v>-0.001091011486616382</v>
+      </c>
+      <c r="H11">
+        <v>0.01543953480503828</v>
+      </c>
+      <c r="I11">
+        <v>-0.04145379424992139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04189324310985403</v>
+        <v>0.03969937811873334</v>
       </c>
       <c r="C12">
-        <v>0.0005155327882821243</v>
+        <v>0.03010740353055132</v>
       </c>
       <c r="D12">
-        <v>0.02807726790646533</v>
+        <v>-0.01686938296945159</v>
       </c>
       <c r="E12">
-        <v>0.02788988321878455</v>
+        <v>-0.0144408904406773</v>
       </c>
       <c r="F12">
-        <v>0.03649550088736178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01719812315486031</v>
+      </c>
+      <c r="G12">
+        <v>0.005976011521462879</v>
+      </c>
+      <c r="H12">
+        <v>0.008381195564696482</v>
+      </c>
+      <c r="I12">
+        <v>-0.02953950652574054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.0443003955832415</v>
+        <v>0.0348527253666573</v>
       </c>
       <c r="C13">
-        <v>-0.008173111950515805</v>
+        <v>0.0265184321586187</v>
       </c>
       <c r="D13">
-        <v>0.05116873611088798</v>
+        <v>0.007308010068705961</v>
       </c>
       <c r="E13">
-        <v>-0.009484571800908089</v>
+        <v>-0.009716504273323441</v>
       </c>
       <c r="F13">
-        <v>0.1092955283878572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.09442898976917644</v>
+      </c>
+      <c r="G13">
+        <v>0.03214771271125263</v>
+      </c>
+      <c r="H13">
+        <v>0.04034542242179905</v>
+      </c>
+      <c r="I13">
+        <v>-0.08150371613328757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02415899509845191</v>
+        <v>0.0206751946983471</v>
       </c>
       <c r="C14">
-        <v>-0.01576188916888627</v>
+        <v>0.01476587500832804</v>
       </c>
       <c r="D14">
-        <v>0.04422729972449193</v>
+        <v>-0.01029730850620379</v>
       </c>
       <c r="E14">
-        <v>0.01903418488251866</v>
+        <v>-0.02921305949124923</v>
       </c>
       <c r="F14">
-        <v>0.03361799372499222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.04063203499458046</v>
+      </c>
+      <c r="G14">
+        <v>0.05663820358076292</v>
+      </c>
+      <c r="H14">
+        <v>0.02845425550669727</v>
+      </c>
+      <c r="I14">
+        <v>-0.02203297556103271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04082179083518109</v>
+        <v>0.03601647386239804</v>
       </c>
       <c r="C16">
-        <v>0.004999640383673555</v>
+        <v>0.03375476492288895</v>
       </c>
       <c r="D16">
-        <v>0.0301597890286282</v>
+        <v>-0.01089955783977918</v>
       </c>
       <c r="E16">
-        <v>0.01344706735459829</v>
+        <v>-0.01052096885490834</v>
       </c>
       <c r="F16">
-        <v>0.03788784572566078</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03450184781504272</v>
+      </c>
+      <c r="G16">
+        <v>0.006444314219526913</v>
+      </c>
+      <c r="H16">
+        <v>0.008783828415811384</v>
+      </c>
+      <c r="I16">
+        <v>-0.04080155584403467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05673740714082121</v>
+        <v>0.04419599546397994</v>
       </c>
       <c r="C19">
-        <v>0.0130631110961457</v>
+        <v>0.04195305703505104</v>
       </c>
       <c r="D19">
-        <v>0.05376342707532962</v>
+        <v>-0.008987619341665708</v>
       </c>
       <c r="E19">
-        <v>0.0163492103757314</v>
+        <v>-0.01521663746323908</v>
       </c>
       <c r="F19">
-        <v>0.09977493041515094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09537316679937674</v>
+      </c>
+      <c r="G19">
+        <v>0.04954653140839303</v>
+      </c>
+      <c r="H19">
+        <v>0.03261165653003054</v>
+      </c>
+      <c r="I19">
+        <v>-0.0852589003985384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.01692440308049017</v>
+        <v>0.01219955841673944</v>
       </c>
       <c r="C20">
-        <v>-0.01242939203629157</v>
+        <v>0.0165671956345105</v>
       </c>
       <c r="D20">
-        <v>0.04481243297568302</v>
+        <v>-0.01016652628348227</v>
       </c>
       <c r="E20">
-        <v>0.03426849516359131</v>
+        <v>-0.01924626437552811</v>
       </c>
       <c r="F20">
-        <v>0.07198566335593255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06193593743734904</v>
+      </c>
+      <c r="G20">
+        <v>0.06286298885748298</v>
+      </c>
+      <c r="H20">
+        <v>0.02124316818582416</v>
+      </c>
+      <c r="I20">
+        <v>-0.07673695440075617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01968055050684114</v>
+        <v>0.02680437369013499</v>
       </c>
       <c r="C21">
-        <v>0.01295265190013368</v>
+        <v>0.02044898728626167</v>
       </c>
       <c r="D21">
-        <v>0.04529487262001391</v>
+        <v>-0.0181742415474352</v>
       </c>
       <c r="E21">
-        <v>0.01231945549666537</v>
+        <v>-0.006492499755500202</v>
       </c>
       <c r="F21">
-        <v>0.0894527579486777</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07238271906062066</v>
+      </c>
+      <c r="G21">
+        <v>0.008391052465888883</v>
+      </c>
+      <c r="H21">
+        <v>0.05419009675498916</v>
+      </c>
+      <c r="I21">
+        <v>-0.01203553577884588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0396980791619448</v>
+        <v>0.03447311601714939</v>
       </c>
       <c r="C24">
-        <v>0.001993854067294327</v>
+        <v>0.02957747048357283</v>
       </c>
       <c r="D24">
-        <v>0.02966146190310666</v>
+        <v>-0.01007548266992494</v>
       </c>
       <c r="E24">
-        <v>0.0166867276343017</v>
+        <v>-0.01150795115998097</v>
       </c>
       <c r="F24">
-        <v>0.04683825571344716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03698028370968917</v>
+      </c>
+      <c r="G24">
+        <v>0.001442527004353757</v>
+      </c>
+      <c r="H24">
+        <v>0.0101448987337271</v>
+      </c>
+      <c r="I24">
+        <v>-0.04326088704840969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04151029633257988</v>
+        <v>0.04220690638553608</v>
       </c>
       <c r="C25">
-        <v>-0.001383581422726273</v>
+        <v>0.02875884130421161</v>
       </c>
       <c r="D25">
-        <v>0.02953979599611797</v>
+        <v>-0.008892399555004859</v>
       </c>
       <c r="E25">
-        <v>0.01791044921872508</v>
+        <v>-0.01270576171816764</v>
       </c>
       <c r="F25">
-        <v>0.0471528227468158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04616538062982375</v>
+      </c>
+      <c r="G25">
+        <v>-0.007083577717581808</v>
+      </c>
+      <c r="H25">
+        <v>0.0144693736599258</v>
+      </c>
+      <c r="I25">
+        <v>-0.03712519319826567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.01875370369202949</v>
+        <v>0.01153192288311296</v>
       </c>
       <c r="C26">
-        <v>0.006560308104262134</v>
+        <v>0.0261981511197469</v>
       </c>
       <c r="D26">
-        <v>0.05439054854669417</v>
+        <v>-0.003630579948370793</v>
       </c>
       <c r="E26">
-        <v>-0.0005492637198558951</v>
+        <v>-0.002886356055122819</v>
       </c>
       <c r="F26">
-        <v>0.03828884228618849</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04618707554478318</v>
+      </c>
+      <c r="G26">
+        <v>0.03174872301375788</v>
+      </c>
+      <c r="H26">
+        <v>0.01782815634478063</v>
+      </c>
+      <c r="I26">
+        <v>-0.03931648643252084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1060055800871974</v>
+        <v>0.06101850738134885</v>
       </c>
       <c r="C27">
-        <v>-0.03186334904343797</v>
+        <v>0.01838366221404098</v>
       </c>
       <c r="D27">
-        <v>0.04573004503141086</v>
+        <v>-0.008596775892369945</v>
       </c>
       <c r="E27">
-        <v>0.04276448180493669</v>
+        <v>-0.03020746879335326</v>
       </c>
       <c r="F27">
-        <v>0.06081951013526658</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.04806980842653527</v>
+      </c>
+      <c r="G27">
+        <v>0.03505558295075256</v>
+      </c>
+      <c r="H27">
+        <v>0.03045728096848423</v>
+      </c>
+      <c r="I27">
+        <v>-0.02551877470806143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05071357927084427</v>
+        <v>0.08096074253924826</v>
       </c>
       <c r="C28">
-        <v>-0.08406963126859748</v>
+        <v>-0.2316605420044669</v>
       </c>
       <c r="D28">
-        <v>-0.2125057784210179</v>
+        <v>0.08353310913005042</v>
       </c>
       <c r="E28">
-        <v>-0.1035707598944239</v>
+        <v>0.0685374851660128</v>
       </c>
       <c r="F28">
-        <v>0.03558414782176381</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0278434859668273</v>
+      </c>
+      <c r="G28">
+        <v>0.0368759009731354</v>
+      </c>
+      <c r="H28">
+        <v>0.0372006495890822</v>
+      </c>
+      <c r="I28">
+        <v>-0.0427247808689605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02495967513848425</v>
+        <v>0.02060406575978962</v>
       </c>
       <c r="C29">
-        <v>-0.0129859527122659</v>
+        <v>0.01572287735339581</v>
       </c>
       <c r="D29">
-        <v>0.04424710171413423</v>
+        <v>-0.01344339742688516</v>
       </c>
       <c r="E29">
-        <v>0.03153816661039823</v>
+        <v>-0.03145165667496289</v>
       </c>
       <c r="F29">
-        <v>0.02475095664639413</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.0363027108428355</v>
+      </c>
+      <c r="G29">
+        <v>0.05659557892085146</v>
+      </c>
+      <c r="H29">
+        <v>0.03223686013241838</v>
+      </c>
+      <c r="I29">
+        <v>-0.006023659651855588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1013319953602901</v>
+        <v>0.08237310884309144</v>
       </c>
       <c r="C30">
-        <v>-0.03463378921174906</v>
+        <v>0.06574185342513802</v>
       </c>
       <c r="D30">
-        <v>0.07031304024936544</v>
+        <v>0.02180066483856727</v>
       </c>
       <c r="E30">
-        <v>0.0237556469800963</v>
+        <v>-0.04046900718906361</v>
       </c>
       <c r="F30">
-        <v>0.107379475592561</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1041287293572632</v>
+      </c>
+      <c r="G30">
+        <v>0.0195400459234265</v>
+      </c>
+      <c r="H30">
+        <v>0.0005040385040635795</v>
+      </c>
+      <c r="I30">
+        <v>-0.03010196021849428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06085265027774577</v>
+        <v>0.05595333798780967</v>
       </c>
       <c r="C31">
-        <v>-0.01520371526594037</v>
+        <v>0.02026080767023938</v>
       </c>
       <c r="D31">
-        <v>0.03430434378750331</v>
+        <v>0.003551579476047025</v>
       </c>
       <c r="E31">
-        <v>-0.02764278057102661</v>
+        <v>-0.02161458308925523</v>
       </c>
       <c r="F31">
-        <v>-0.0161542025186879</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.001876582117931389</v>
+      </c>
+      <c r="G31">
+        <v>0.03939596497144129</v>
+      </c>
+      <c r="H31">
+        <v>0.05212326337669333</v>
+      </c>
+      <c r="I31">
+        <v>-0.01603972218649535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.04887429408369391</v>
+        <v>0.02805730725458486</v>
       </c>
       <c r="C32">
-        <v>-0.005838521254897559</v>
+        <v>0.03189177767735285</v>
       </c>
       <c r="D32">
-        <v>0.05701222929530649</v>
+        <v>-0.02811693915966169</v>
       </c>
       <c r="E32">
-        <v>0.03927572952878559</v>
+        <v>-0.03959587344667229</v>
       </c>
       <c r="F32">
-        <v>0.08287818116396145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07315071158747914</v>
+      </c>
+      <c r="G32">
+        <v>0.03351170657607741</v>
+      </c>
+      <c r="H32">
+        <v>0.03488074915799617</v>
+      </c>
+      <c r="I32">
+        <v>-0.06173984597177653</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.04882469066463172</v>
+        <v>0.04333828590346388</v>
       </c>
       <c r="C33">
-        <v>0.006008650840331248</v>
+        <v>0.05496692814706512</v>
       </c>
       <c r="D33">
-        <v>0.07981923285211083</v>
+        <v>0.002121583944469923</v>
       </c>
       <c r="E33">
-        <v>0.01860676157809795</v>
+        <v>-0.01104169822656003</v>
       </c>
       <c r="F33">
-        <v>0.06403509802985199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07157300778472223</v>
+      </c>
+      <c r="G33">
+        <v>0.04024348312361312</v>
+      </c>
+      <c r="H33">
+        <v>0.04572446394407551</v>
+      </c>
+      <c r="I33">
+        <v>-0.0448856893572058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04023938037019578</v>
+        <v>0.03709267964776222</v>
       </c>
       <c r="C34">
-        <v>-0.006178503929947921</v>
+        <v>0.03162970663626639</v>
       </c>
       <c r="D34">
-        <v>0.03512694782803624</v>
+        <v>-0.01569125258875859</v>
       </c>
       <c r="E34">
-        <v>0.01908018612497279</v>
+        <v>-0.0218513794667942</v>
       </c>
       <c r="F34">
-        <v>0.03986534307064767</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03869304515733056</v>
+      </c>
+      <c r="G34">
+        <v>0.0005922125398375209</v>
+      </c>
+      <c r="H34">
+        <v>0.01208435113901254</v>
+      </c>
+      <c r="I34">
+        <v>-0.04189244431176944</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01253534016467141</v>
+        <v>0.01561032262117954</v>
       </c>
       <c r="C36">
-        <v>-0.01132382208949079</v>
+        <v>0.0005768246561591284</v>
       </c>
       <c r="D36">
-        <v>0.01205785701777971</v>
+        <v>-0.003631623942286618</v>
       </c>
       <c r="E36">
-        <v>0.01123782288616113</v>
+        <v>-0.01037919049695058</v>
       </c>
       <c r="F36">
-        <v>0.02345613426186012</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0272804938417964</v>
+      </c>
+      <c r="G36">
+        <v>0.02970350660237893</v>
+      </c>
+      <c r="H36">
+        <v>0.03077504662259725</v>
+      </c>
+      <c r="I36">
+        <v>0.006143099540982269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.02326839911976973</v>
+        <v>0.02527048729780618</v>
       </c>
       <c r="C38">
-        <v>-0.005903082440509259</v>
+        <v>0.003971955092949743</v>
       </c>
       <c r="D38">
-        <v>-0.004587653714468941</v>
+        <v>-0.005605032010827596</v>
       </c>
       <c r="E38">
-        <v>0.009975231310230948</v>
+        <v>-0.003042946512057998</v>
       </c>
       <c r="F38">
-        <v>0.01468607539913967</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04197045015540894</v>
+      </c>
+      <c r="G38">
+        <v>0.01006093333909209</v>
+      </c>
+      <c r="H38">
+        <v>0.03355150025084821</v>
+      </c>
+      <c r="I38">
+        <v>7.331476487619394e-05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.06117668994729445</v>
+        <v>0.04658030167748485</v>
       </c>
       <c r="C39">
-        <v>-0.008207561926137955</v>
+        <v>0.05201622738352146</v>
       </c>
       <c r="D39">
-        <v>0.04903942915272996</v>
+        <v>-0.01113956264941994</v>
       </c>
       <c r="E39">
-        <v>0.007085810328650582</v>
+        <v>-0.02684427508830868</v>
       </c>
       <c r="F39">
-        <v>0.03706484061070659</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05594871666888293</v>
+      </c>
+      <c r="G39">
+        <v>-0.006578115149819525</v>
+      </c>
+      <c r="H39">
+        <v>0.02461771107168301</v>
+      </c>
+      <c r="I39">
+        <v>-0.02488089092491765</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.05327243601476226</v>
+        <v>0.04495122287240312</v>
       </c>
       <c r="C40">
-        <v>-0.02498829821844627</v>
+        <v>0.04527743063125384</v>
       </c>
       <c r="D40">
-        <v>0.07445057590327003</v>
+        <v>0.008804509531600108</v>
       </c>
       <c r="E40">
-        <v>-0.01030562545219272</v>
+        <v>-0.02832572818043285</v>
       </c>
       <c r="F40">
-        <v>0.08813296093520448</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.08247994549648263</v>
+      </c>
+      <c r="G40">
+        <v>0.03144961907953923</v>
+      </c>
+      <c r="H40">
+        <v>0.03692430067989612</v>
+      </c>
+      <c r="I40">
+        <v>-0.1160586967221483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.008232592924249981</v>
+        <v>-0.0001928320220099897</v>
       </c>
       <c r="C41">
-        <v>-0.002318273050633275</v>
+        <v>0.003123467986846506</v>
       </c>
       <c r="D41">
-        <v>0.02826261542897496</v>
+        <v>0.0001020568040402352</v>
       </c>
       <c r="E41">
-        <v>0.01065380099337298</v>
+        <v>-0.007944090325951768</v>
       </c>
       <c r="F41">
-        <v>-0.01260242888446804</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006849991988256846</v>
+      </c>
+      <c r="G41">
+        <v>0.03891509230937973</v>
+      </c>
+      <c r="H41">
+        <v>0.04575482448131432</v>
+      </c>
+      <c r="I41">
+        <v>-0.001545469249969606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.2618757741953798</v>
+        <v>0.2044530064473787</v>
       </c>
       <c r="C42">
-        <v>0.908313662263882</v>
+        <v>0.3377437111048085</v>
       </c>
       <c r="D42">
-        <v>-0.132822495368229</v>
+        <v>-0.09171934336764455</v>
       </c>
       <c r="E42">
-        <v>-0.2284789926742418</v>
+        <v>0.8816787315683399</v>
       </c>
       <c r="F42">
-        <v>-0.03428307036317872</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1673497109649432</v>
+      </c>
+      <c r="G42">
+        <v>0.0007307294103774946</v>
+      </c>
+      <c r="H42">
+        <v>-0.01063499313731288</v>
+      </c>
+      <c r="I42">
+        <v>-0.03463093992246397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007552326030756299</v>
+        <v>0.002460622517434091</v>
       </c>
       <c r="C43">
-        <v>-0.001299574943879229</v>
+        <v>0.005954359398292715</v>
       </c>
       <c r="D43">
-        <v>0.03044241547001725</v>
+        <v>0.00177880614859555</v>
       </c>
       <c r="E43">
-        <v>0.005866516692041247</v>
+        <v>-0.005543259356915947</v>
       </c>
       <c r="F43">
-        <v>0.01962917936358244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01849553955653838</v>
+      </c>
+      <c r="G43">
+        <v>0.03322830703533183</v>
+      </c>
+      <c r="H43">
+        <v>0.02745056450451876</v>
+      </c>
+      <c r="I43">
+        <v>-0.0107944999498779</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02646541696210182</v>
+        <v>0.01879494738056879</v>
       </c>
       <c r="C44">
-        <v>0.0002254001991649496</v>
+        <v>0.03174145176894669</v>
       </c>
       <c r="D44">
-        <v>0.07062603680917401</v>
+        <v>-0.01165859677043839</v>
       </c>
       <c r="E44">
-        <v>0.02597192720656044</v>
+        <v>-0.01382800706225173</v>
       </c>
       <c r="F44">
-        <v>0.113320087132057</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.116688813127594</v>
+      </c>
+      <c r="G44">
+        <v>0.08503267263578239</v>
+      </c>
+      <c r="H44">
+        <v>0.06952824012636445</v>
+      </c>
+      <c r="I44">
+        <v>-0.06327104614322607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02784950162089536</v>
+        <v>0.02033385826977677</v>
       </c>
       <c r="C46">
-        <v>-0.007681290457742118</v>
+        <v>0.03144070996839098</v>
       </c>
       <c r="D46">
-        <v>0.05282276910672009</v>
+        <v>-0.005086609483254898</v>
       </c>
       <c r="E46">
-        <v>0.01511407327573052</v>
+        <v>-0.03245033444181954</v>
       </c>
       <c r="F46">
-        <v>0.01435664746584136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04689234555409992</v>
+      </c>
+      <c r="G46">
+        <v>0.05686440341097507</v>
+      </c>
+      <c r="H46">
+        <v>0.03206651568765007</v>
+      </c>
+      <c r="I46">
+        <v>-0.009638459710638324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08641869012753477</v>
+        <v>0.08172306973607871</v>
       </c>
       <c r="C47">
-        <v>-0.01934860676259943</v>
+        <v>0.02696420509599647</v>
       </c>
       <c r="D47">
-        <v>0.03938143115728766</v>
+        <v>-0.0051134262787004</v>
       </c>
       <c r="E47">
-        <v>0.01514778440934167</v>
+        <v>-0.03098395753314613</v>
       </c>
       <c r="F47">
-        <v>-0.01972542605077058</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01855682974860987</v>
+      </c>
+      <c r="G47">
+        <v>0.06606925781643555</v>
+      </c>
+      <c r="H47">
+        <v>0.04566160741779898</v>
+      </c>
+      <c r="I47">
+        <v>-0.02786149124042043</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01278419490354513</v>
+        <v>0.01908916113260246</v>
       </c>
       <c r="C48">
-        <v>-0.00679202315443965</v>
+        <v>0.01164203077728693</v>
       </c>
       <c r="D48">
-        <v>0.03405394966021841</v>
+        <v>-0.004159857611859201</v>
       </c>
       <c r="E48">
-        <v>0.01304944208638799</v>
+        <v>-0.0146439439256467</v>
       </c>
       <c r="F48">
-        <v>0.0262798267945751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0293195796434021</v>
+      </c>
+      <c r="G48">
+        <v>0.02277520781654074</v>
+      </c>
+      <c r="H48">
+        <v>0.02344282590284702</v>
+      </c>
+      <c r="I48">
+        <v>-0.01227274778570075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08600821442340136</v>
+        <v>0.08193726129432886</v>
       </c>
       <c r="C50">
-        <v>-0.005631159725869341</v>
+        <v>0.0364679714158498</v>
       </c>
       <c r="D50">
-        <v>0.04136050006958094</v>
+        <v>-0.02092278489815617</v>
       </c>
       <c r="E50">
-        <v>-0.004214181928764335</v>
+        <v>-0.02333617809579922</v>
       </c>
       <c r="F50">
-        <v>-0.01182770980009593</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.005219609348144058</v>
+      </c>
+      <c r="G50">
+        <v>0.0482816400533852</v>
+      </c>
+      <c r="H50">
+        <v>0.00365477729115337</v>
+      </c>
+      <c r="I50">
+        <v>0.007109123056569163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05362608121681771</v>
+        <v>0.03817870735161685</v>
       </c>
       <c r="C51">
-        <v>-0.01683897473875729</v>
+        <v>0.001045501541036359</v>
       </c>
       <c r="D51">
-        <v>0.03246508306149426</v>
+        <v>0.0126129311295291</v>
       </c>
       <c r="E51">
-        <v>-0.02679605102990321</v>
+        <v>-0.00834097430073154</v>
       </c>
       <c r="F51">
-        <v>0.05773653909755883</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08345227385381791</v>
+      </c>
+      <c r="G51">
+        <v>0.06107217015339403</v>
+      </c>
+      <c r="H51">
+        <v>0.06934967610391862</v>
+      </c>
+      <c r="I51">
+        <v>-0.04240263343869012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1227814997766902</v>
+        <v>0.1127887769802605</v>
       </c>
       <c r="C53">
-        <v>-0.02962426881777998</v>
+        <v>0.04725044854244545</v>
       </c>
       <c r="D53">
-        <v>0.06102777884318356</v>
+        <v>-0.01013686027065086</v>
       </c>
       <c r="E53">
-        <v>0.002943067654534909</v>
+        <v>-0.05847649796029917</v>
       </c>
       <c r="F53">
-        <v>-0.07464399489596661</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05869362929237259</v>
+      </c>
+      <c r="G53">
+        <v>0.02832700405699349</v>
+      </c>
+      <c r="H53">
+        <v>0.02600413838842455</v>
+      </c>
+      <c r="I53">
+        <v>-0.02748175835258166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02239996110108929</v>
+        <v>0.02429216387190572</v>
       </c>
       <c r="C54">
-        <v>-0.01990571688177356</v>
+        <v>0.001781317577854704</v>
       </c>
       <c r="D54">
-        <v>0.03041404011088395</v>
+        <v>-0.004729690481983231</v>
       </c>
       <c r="E54">
-        <v>0.01847693299982961</v>
+        <v>-0.02989546808414867</v>
       </c>
       <c r="F54">
-        <v>0.03405018952717868</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03482321749868573</v>
+      </c>
+      <c r="G54">
+        <v>0.05224014551902384</v>
+      </c>
+      <c r="H54">
+        <v>0.04162210324766184</v>
+      </c>
+      <c r="I54">
+        <v>-0.0016662009225084</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1042660983247233</v>
+        <v>0.09272553600619213</v>
       </c>
       <c r="C55">
-        <v>-0.0211027977525443</v>
+        <v>0.03958634026442962</v>
       </c>
       <c r="D55">
-        <v>0.01878721567409813</v>
+        <v>-0.02540558797882236</v>
       </c>
       <c r="E55">
-        <v>0.04120816835454658</v>
+        <v>-0.04412193812458212</v>
       </c>
       <c r="F55">
-        <v>-0.02757933078732706</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04266765984704876</v>
+      </c>
+      <c r="G55">
+        <v>0.0465016705589022</v>
+      </c>
+      <c r="H55">
+        <v>-0.005957019916700706</v>
+      </c>
+      <c r="I55">
+        <v>-0.009716347105373401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1612964525699596</v>
+        <v>0.1551228721895184</v>
       </c>
       <c r="C56">
-        <v>-0.07925790620247772</v>
+        <v>0.03962371948781734</v>
       </c>
       <c r="D56">
-        <v>0.03625755359301518</v>
+        <v>-0.01034600946391188</v>
       </c>
       <c r="E56">
-        <v>0.02207125309748864</v>
+        <v>-0.09466031127531431</v>
       </c>
       <c r="F56">
-        <v>-0.1094240213040172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1011343971072766</v>
+      </c>
+      <c r="G56">
+        <v>-0.005452228035920346</v>
+      </c>
+      <c r="H56">
+        <v>-0.02662669320052235</v>
+      </c>
+      <c r="I56">
+        <v>-0.02642981846520826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.06449118579839827</v>
+        <v>0.05454082631391896</v>
       </c>
       <c r="C57">
-        <v>-0.01208922618822353</v>
+        <v>0.03414505387231838</v>
       </c>
       <c r="D57">
-        <v>0.05417383245419602</v>
+        <v>0.008009838116663229</v>
       </c>
       <c r="E57">
-        <v>-0.008009750719041924</v>
+        <v>-0.006276968281070369</v>
       </c>
       <c r="F57">
-        <v>0.05926971653485691</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06334274301257367</v>
+      </c>
+      <c r="G57">
+        <v>0.01904308574017303</v>
+      </c>
+      <c r="H57">
+        <v>0.02475638256874293</v>
+      </c>
+      <c r="I57">
+        <v>-0.03465116888758258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1904525581990802</v>
+        <v>0.1893154829153594</v>
       </c>
       <c r="C58">
-        <v>-0.0005026653597966347</v>
+        <v>0.1519468320573165</v>
       </c>
       <c r="D58">
-        <v>0.1242007394492383</v>
+        <v>0.04818588950348771</v>
       </c>
       <c r="E58">
-        <v>0.01053995907394486</v>
+        <v>0.01960019035356145</v>
       </c>
       <c r="F58">
-        <v>0.2463032735653199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3790711375498311</v>
+      </c>
+      <c r="G58">
+        <v>0.3778769623751543</v>
+      </c>
+      <c r="H58">
+        <v>-0.2410974081923656</v>
+      </c>
+      <c r="I58">
+        <v>0.7203207142609596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.05896083785082624</v>
+        <v>0.08921187593012836</v>
       </c>
       <c r="C59">
-        <v>-0.1017492870815718</v>
+        <v>-0.1912175069152152</v>
       </c>
       <c r="D59">
-        <v>-0.1465783026397412</v>
+        <v>0.0860182286166596</v>
       </c>
       <c r="E59">
-        <v>-0.06462637062155588</v>
+        <v>0.0270816809911247</v>
       </c>
       <c r="F59">
-        <v>0.04281801936234705</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.05358937566964461</v>
+      </c>
+      <c r="G59">
+        <v>0.006874315475804333</v>
+      </c>
+      <c r="H59">
+        <v>0.02550832262635738</v>
+      </c>
+      <c r="I59">
+        <v>-0.01337945995628018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1844931864849605</v>
+        <v>0.2008293987292077</v>
       </c>
       <c r="C60">
-        <v>-0.06016368185362274</v>
+        <v>-0.008293670577708826</v>
       </c>
       <c r="D60">
-        <v>-0.001969308378047784</v>
+        <v>0.06323082199574924</v>
       </c>
       <c r="E60">
-        <v>-0.08073493739108391</v>
+        <v>-0.01663305262284701</v>
       </c>
       <c r="F60">
-        <v>0.1405395315153096</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1871821658297773</v>
+      </c>
+      <c r="G60">
+        <v>-0.3501742106170034</v>
+      </c>
+      <c r="H60">
+        <v>-0.04848327007124102</v>
+      </c>
+      <c r="I60">
+        <v>-0.03342030690819794</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03155712626812851</v>
+        <v>0.03475656022457286</v>
       </c>
       <c r="C61">
-        <v>-0.003382224919111814</v>
+        <v>0.03375999775288602</v>
       </c>
       <c r="D61">
-        <v>0.02569615011222806</v>
+        <v>-0.01216678406289882</v>
       </c>
       <c r="E61">
-        <v>0.0188904182710369</v>
+        <v>-0.0192578691021542</v>
       </c>
       <c r="F61">
-        <v>0.0381630400966755</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03992818007150807</v>
+      </c>
+      <c r="G61">
+        <v>-0.01592538669119705</v>
+      </c>
+      <c r="H61">
+        <v>0.01176139294144088</v>
+      </c>
+      <c r="I61">
+        <v>-0.01254090039124134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.0285145444784187</v>
+        <v>0.02476601608700585</v>
       </c>
       <c r="C63">
-        <v>-0.0124593242767406</v>
+        <v>0.02290774169020447</v>
       </c>
       <c r="D63">
-        <v>0.039729459379554</v>
+        <v>-0.006608662902774583</v>
       </c>
       <c r="E63">
-        <v>0.01331463724465831</v>
+        <v>-0.01947172257636766</v>
       </c>
       <c r="F63">
-        <v>0.04397555958281107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0298411372121449</v>
+      </c>
+      <c r="G63">
+        <v>0.04905008688249545</v>
+      </c>
+      <c r="H63">
+        <v>0.01624916804089848</v>
+      </c>
+      <c r="I63">
+        <v>-0.0280814241055802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05214517892264346</v>
+        <v>0.05202179776533326</v>
       </c>
       <c r="C64">
-        <v>-0.007341373412840686</v>
+        <v>0.03617182335268427</v>
       </c>
       <c r="D64">
-        <v>0.05262354761493503</v>
+        <v>-0.02327678682000137</v>
       </c>
       <c r="E64">
-        <v>0.05569531353947738</v>
+        <v>-0.0264284447523926</v>
       </c>
       <c r="F64">
-        <v>0.03785709903634503</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04221881580865133</v>
+      </c>
+      <c r="G64">
+        <v>0.02212020752107898</v>
+      </c>
+      <c r="H64">
+        <v>0.06876159761932578</v>
+      </c>
+      <c r="I64">
+        <v>-0.05366653988255553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.0009455569963806347</v>
+        <v>0.03143701494982745</v>
       </c>
       <c r="C65">
-        <v>0.0027037814502134</v>
+        <v>0.01414762816267977</v>
       </c>
       <c r="D65">
-        <v>-0.001388150139464596</v>
+        <v>-0.008570868745672195</v>
       </c>
       <c r="E65">
-        <v>-0.001928432741753539</v>
+        <v>-0.008964543845462893</v>
       </c>
       <c r="F65">
-        <v>-0.002408479376420131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.008386816778871327</v>
+      </c>
+      <c r="G65">
+        <v>-0.02313116239469011</v>
+      </c>
+      <c r="H65">
+        <v>-0.01018385878005671</v>
+      </c>
+      <c r="I65">
+        <v>-0.009043302178753061</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.05993753307447548</v>
+        <v>0.05579357272129506</v>
       </c>
       <c r="C66">
-        <v>-0.02291242234908502</v>
+        <v>0.06110835887509348</v>
       </c>
       <c r="D66">
-        <v>0.0693386754223579</v>
+        <v>-0.005892452681913304</v>
       </c>
       <c r="E66">
-        <v>0.03124573344963559</v>
+        <v>-0.05296466660646689</v>
       </c>
       <c r="F66">
-        <v>0.07622319519228773</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07052548377314924</v>
+      </c>
+      <c r="G66">
+        <v>-0.01265284423227259</v>
+      </c>
+      <c r="H66">
+        <v>0.009478490807840731</v>
+      </c>
+      <c r="I66">
+        <v>-0.06622990819249569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.04217086644106028</v>
+        <v>0.04370568626568278</v>
       </c>
       <c r="C67">
-        <v>-0.01305689681445329</v>
+        <v>-0.0044570346903138</v>
       </c>
       <c r="D67">
-        <v>-0.01756631507862152</v>
+        <v>0.002166361838903003</v>
       </c>
       <c r="E67">
-        <v>-0.003862394777497923</v>
+        <v>-0.004821364158945014</v>
       </c>
       <c r="F67">
-        <v>0.02037718169041639</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03335889151261613</v>
+      </c>
+      <c r="G67">
+        <v>-0.01535710673976105</v>
+      </c>
+      <c r="H67">
+        <v>0.04384675559866401</v>
+      </c>
+      <c r="I67">
+        <v>0.004211993941692852</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.06732536943884621</v>
+        <v>0.08579140897863663</v>
       </c>
       <c r="C68">
-        <v>-0.09030477981949742</v>
+        <v>-0.2181441640907106</v>
       </c>
       <c r="D68">
-        <v>-0.2076067449926787</v>
+        <v>0.09005468770862449</v>
       </c>
       <c r="E68">
-        <v>-0.09424611596921376</v>
+        <v>0.0566788273529846</v>
       </c>
       <c r="F68">
-        <v>0.0188054125967784</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.006909311989770114</v>
+      </c>
+      <c r="G68">
+        <v>0.04219175515549928</v>
+      </c>
+      <c r="H68">
+        <v>-0.009659637335013377</v>
+      </c>
+      <c r="I68">
+        <v>0.02067871127560331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07086009663832414</v>
+        <v>0.067298455776879</v>
       </c>
       <c r="C69">
-        <v>-0.02430602496047502</v>
+        <v>0.0225357878343714</v>
       </c>
       <c r="D69">
-        <v>0.02454354331960221</v>
+        <v>-0.000584623049723214</v>
       </c>
       <c r="E69">
-        <v>-0.001099370867025113</v>
+        <v>-0.03223058502982672</v>
       </c>
       <c r="F69">
-        <v>-0.005739996958179525</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.00468220263996742</v>
+      </c>
+      <c r="G69">
+        <v>0.04285553246195405</v>
+      </c>
+      <c r="H69">
+        <v>0.03531936208024774</v>
+      </c>
+      <c r="I69">
+        <v>-0.02246472654073417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.06917370252536315</v>
+        <v>0.08625352976030194</v>
       </c>
       <c r="C71">
-        <v>-0.1145902243651665</v>
+        <v>-0.2355735252868099</v>
       </c>
       <c r="D71">
-        <v>-0.2455667923622911</v>
+        <v>0.1025600516175474</v>
       </c>
       <c r="E71">
-        <v>-0.1535099591514361</v>
+        <v>0.07181797813720125</v>
       </c>
       <c r="F71">
-        <v>0.06439039369309769</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03516420244208467</v>
+      </c>
+      <c r="G71">
+        <v>0.02335439741042546</v>
+      </c>
+      <c r="H71">
+        <v>0.01392673312360639</v>
+      </c>
+      <c r="I71">
+        <v>-0.004296297550607575</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1253107430924204</v>
+        <v>0.1316544717830169</v>
       </c>
       <c r="C72">
-        <v>-0.07185939715525379</v>
+        <v>0.05418809906570726</v>
       </c>
       <c r="D72">
-        <v>0.04223677345997108</v>
+        <v>-0.0006207290873543577</v>
       </c>
       <c r="E72">
-        <v>0.01870964361158083</v>
+        <v>-0.08966282250010958</v>
       </c>
       <c r="F72">
-        <v>0.08389047712142579</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.09836417819432146</v>
+      </c>
+      <c r="G72">
+        <v>-0.09318484678744304</v>
+      </c>
+      <c r="H72">
+        <v>-0.01412319150934809</v>
+      </c>
+      <c r="I72">
+        <v>0.1390458520976982</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2849905059488305</v>
+        <v>0.2871169827052077</v>
       </c>
       <c r="C73">
-        <v>-0.07980453319319369</v>
+        <v>0.006906190161377088</v>
       </c>
       <c r="D73">
-        <v>-0.04313773164327225</v>
+        <v>0.09849753821465705</v>
       </c>
       <c r="E73">
-        <v>-0.1116605724320063</v>
+        <v>0.02242261786982862</v>
       </c>
       <c r="F73">
-        <v>0.2420843056382218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2669690894035314</v>
+      </c>
+      <c r="G73">
+        <v>-0.5237509383908262</v>
+      </c>
+      <c r="H73">
+        <v>-0.1275640904581917</v>
+      </c>
+      <c r="I73">
+        <v>0.00711948262468493</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1463663625167585</v>
+        <v>0.1395812101807426</v>
       </c>
       <c r="C74">
-        <v>-0.02939861201735783</v>
+        <v>0.0549845913347427</v>
       </c>
       <c r="D74">
-        <v>0.03784704789489122</v>
+        <v>-0.009042254795098702</v>
       </c>
       <c r="E74">
-        <v>0.008243889982648989</v>
+        <v>-0.05976345374306669</v>
       </c>
       <c r="F74">
-        <v>-0.06056900673943492</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07986949290964927</v>
+      </c>
+      <c r="G74">
+        <v>-0.004665391409214808</v>
+      </c>
+      <c r="H74">
+        <v>-0.01682741769941898</v>
+      </c>
+      <c r="I74">
+        <v>-0.06940631800554699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2277520878264349</v>
+        <v>0.2419467496705816</v>
       </c>
       <c r="C75">
-        <v>-0.08248139202644914</v>
+        <v>0.06501686073435176</v>
       </c>
       <c r="D75">
-        <v>0.07256348688234955</v>
+        <v>0.01078998690065834</v>
       </c>
       <c r="E75">
-        <v>-0.009148467770695804</v>
+        <v>-0.1255747954022925</v>
       </c>
       <c r="F75">
-        <v>-0.1396786344765615</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1457961321057747</v>
+      </c>
+      <c r="G75">
+        <v>0.01970870187538356</v>
+      </c>
+      <c r="H75">
+        <v>0.008554947944561865</v>
+      </c>
+      <c r="I75">
+        <v>-0.01165777705507248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2579158339924718</v>
+        <v>0.2554443063348108</v>
       </c>
       <c r="C76">
-        <v>-0.1016162203239062</v>
+        <v>0.04759606985179615</v>
       </c>
       <c r="D76">
-        <v>0.03477493943729265</v>
+        <v>-0.02571148987158323</v>
       </c>
       <c r="E76">
-        <v>0.05206669911665752</v>
+        <v>-0.1510474650320214</v>
       </c>
       <c r="F76">
-        <v>-0.1336038249382432</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1957497778591411</v>
+      </c>
+      <c r="G76">
+        <v>0.03554249133631854</v>
+      </c>
+      <c r="H76">
+        <v>-0.07399519586399897</v>
+      </c>
+      <c r="I76">
+        <v>-0.03009644890885951</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1424963452514363</v>
+        <v>0.1026506965666409</v>
       </c>
       <c r="C77">
-        <v>0.04108290833618862</v>
+        <v>0.08410230512059545</v>
       </c>
       <c r="D77">
-        <v>0.08854234086213804</v>
+        <v>-0.02195689308611481</v>
       </c>
       <c r="E77">
-        <v>0.02229679430880282</v>
+        <v>0.03380828606325553</v>
       </c>
       <c r="F77">
-        <v>0.2140411272438833</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1672298685210725</v>
+      </c>
+      <c r="G77">
+        <v>0.2298591770002197</v>
+      </c>
+      <c r="H77">
+        <v>-0.004369661772797682</v>
+      </c>
+      <c r="I77">
+        <v>-0.2559485417304708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.0821380071102351</v>
+        <v>0.06082272607675432</v>
       </c>
       <c r="C78">
-        <v>0.01972099190862526</v>
+        <v>0.06675956400358556</v>
       </c>
       <c r="D78">
-        <v>0.08977085562155428</v>
+        <v>-0.0251881463756711</v>
       </c>
       <c r="E78">
-        <v>0.04729248951573942</v>
+        <v>-0.02679282592649278</v>
       </c>
       <c r="F78">
-        <v>0.03743314031992059</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07187373632607016</v>
+      </c>
+      <c r="G78">
+        <v>0.0296975740117535</v>
+      </c>
+      <c r="H78">
+        <v>0.02887831725028831</v>
+      </c>
+      <c r="I78">
+        <v>-0.04680900036014528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1289859820385322</v>
+        <v>0.1483368526216557</v>
       </c>
       <c r="C80">
-        <v>0.1264026235030309</v>
+        <v>-0.3389780337306997</v>
       </c>
       <c r="D80">
-        <v>-0.4293129770677326</v>
+        <v>-0.9143818286139184</v>
       </c>
       <c r="E80">
-        <v>0.8625140998913471</v>
+        <v>0.02321589302424155</v>
       </c>
       <c r="F80">
-        <v>0.02672846492010939</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06548369263007649</v>
+      </c>
+      <c r="G80">
+        <v>-0.05424121501921733</v>
+      </c>
+      <c r="H80">
+        <v>0.03041886270407689</v>
+      </c>
+      <c r="I80">
+        <v>0.08735648090362517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1662151358277471</v>
+        <v>0.1813924639495367</v>
       </c>
       <c r="C81">
-        <v>-0.06129247138215634</v>
+        <v>0.03885161527600992</v>
       </c>
       <c r="D81">
-        <v>0.03616909308241469</v>
+        <v>-0.006312580938077947</v>
       </c>
       <c r="E81">
-        <v>0.01238376331455294</v>
+        <v>-0.103270975680196</v>
       </c>
       <c r="F81">
-        <v>-0.1516797514633774</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1441167414192865</v>
+      </c>
+      <c r="G81">
+        <v>0.05064374571809268</v>
+      </c>
+      <c r="H81">
+        <v>-0.02767546574527428</v>
+      </c>
+      <c r="I81">
+        <v>-0.002949199848586834</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06272048105294528</v>
+        <v>0.04958764047971356</v>
       </c>
       <c r="C83">
-        <v>0.04996905067128438</v>
+        <v>0.05303551346602464</v>
       </c>
       <c r="D83">
-        <v>0.07414328227622216</v>
+        <v>-0.006595053594497204</v>
       </c>
       <c r="E83">
-        <v>0.005424486399760611</v>
+        <v>0.01879431093350374</v>
       </c>
       <c r="F83">
-        <v>0.02043354234772711</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04421528697821808</v>
+      </c>
+      <c r="G83">
+        <v>0.02601040984675624</v>
+      </c>
+      <c r="H83">
+        <v>0.04828722677606411</v>
+      </c>
+      <c r="I83">
+        <v>-0.03772561839176741</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2304981038158337</v>
+        <v>0.2382312746157659</v>
       </c>
       <c r="C85">
-        <v>-0.04751805329056885</v>
+        <v>0.08989145185356022</v>
       </c>
       <c r="D85">
-        <v>0.06788402988029198</v>
+        <v>-0.01606527369104555</v>
       </c>
       <c r="E85">
-        <v>0.04427336932244316</v>
+        <v>-0.1153111929108106</v>
       </c>
       <c r="F85">
-        <v>-0.1668751165974844</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.187302479849156</v>
+      </c>
+      <c r="G85">
+        <v>0.04076428082596045</v>
+      </c>
+      <c r="H85">
+        <v>-0.01721241302516044</v>
+      </c>
+      <c r="I85">
+        <v>-0.02787239607745097</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02241249569749846</v>
+        <v>0.0195102811809964</v>
       </c>
       <c r="C86">
-        <v>0.008174038372854707</v>
+        <v>0.03812291717161258</v>
       </c>
       <c r="D86">
-        <v>0.06397824517899542</v>
+        <v>-0.008906897625487069</v>
       </c>
       <c r="E86">
-        <v>0.01697552466796247</v>
+        <v>-0.01466672110720198</v>
       </c>
       <c r="F86">
-        <v>0.08791319433472318</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08819733212570711</v>
+      </c>
+      <c r="G86">
+        <v>0.05964463759620504</v>
+      </c>
+      <c r="H86">
+        <v>0.01804300044758463</v>
+      </c>
+      <c r="I86">
+        <v>-0.07406919550962432</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01300775655197941</v>
+        <v>0.02367186710571263</v>
       </c>
       <c r="C87">
-        <v>-0.02316346158704974</v>
+        <v>-0.009710756419058391</v>
       </c>
       <c r="D87">
-        <v>-0.04123374126258642</v>
+        <v>0.0002468815463333447</v>
       </c>
       <c r="E87">
-        <v>-0.01719031687983104</v>
+        <v>0.004043459853571479</v>
       </c>
       <c r="F87">
-        <v>0.1042219396292624</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1063930182798571</v>
+      </c>
+      <c r="G87">
+        <v>0.01036584349195522</v>
+      </c>
+      <c r="H87">
+        <v>-0.01320368643078407</v>
+      </c>
+      <c r="I87">
+        <v>-0.06296190317030884</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01811758669121619</v>
+        <v>0.03233463021571834</v>
       </c>
       <c r="C88">
-        <v>-0.009390538570165353</v>
+        <v>-0.007219358992767911</v>
       </c>
       <c r="D88">
-        <v>-0.006346481860633613</v>
+        <v>-0.001486925556766336</v>
       </c>
       <c r="E88">
-        <v>0.01858678705294572</v>
+        <v>-0.007484381215791283</v>
       </c>
       <c r="F88">
-        <v>-0.004606780578857727</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.004436055061790259</v>
+      </c>
+      <c r="G88">
+        <v>-0.003037375469144874</v>
+      </c>
+      <c r="H88">
+        <v>0.05739778308470073</v>
+      </c>
+      <c r="I88">
+        <v>-0.008413869624011448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.1093261538548092</v>
+        <v>0.147199533699046</v>
       </c>
       <c r="C89">
-        <v>-0.1056189775711582</v>
+        <v>-0.335638226435592</v>
       </c>
       <c r="D89">
-        <v>-0.2853709167674832</v>
+        <v>0.1660899996971381</v>
       </c>
       <c r="E89">
-        <v>-0.1720477948990336</v>
+        <v>0.1012434709973998</v>
       </c>
       <c r="F89">
-        <v>0.04416224774651181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02064978948926855</v>
+      </c>
+      <c r="G89">
+        <v>0.09010912709138913</v>
+      </c>
+      <c r="H89">
+        <v>0.02793167846232562</v>
+      </c>
+      <c r="I89">
+        <v>-0.0429216429481529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.09091668849484449</v>
+        <v>0.1034757244925769</v>
       </c>
       <c r="C90">
-        <v>-0.09958371965609099</v>
+        <v>-0.292488423968656</v>
       </c>
       <c r="D90">
-        <v>-0.2720865334733899</v>
+        <v>0.1243806007883837</v>
       </c>
       <c r="E90">
-        <v>-0.1048833403978579</v>
+        <v>0.08597811554562776</v>
       </c>
       <c r="F90">
-        <v>0.04908642076831052</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.005760157868839213</v>
+      </c>
+      <c r="G90">
+        <v>0.07813716550521685</v>
+      </c>
+      <c r="H90">
+        <v>0.01778879715127957</v>
+      </c>
+      <c r="I90">
+        <v>-0.001452750415859236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2902914361391228</v>
+        <v>0.2825287476790413</v>
       </c>
       <c r="C91">
-        <v>-0.05618551772986741</v>
+        <v>0.1018407928932653</v>
       </c>
       <c r="D91">
-        <v>0.08665530152282891</v>
+        <v>-0.01418308553064539</v>
       </c>
       <c r="E91">
-        <v>0.03723046404219726</v>
+        <v>-0.119234600122174</v>
       </c>
       <c r="F91">
-        <v>-0.2449508422805369</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2556950531483524</v>
+      </c>
+      <c r="G91">
+        <v>0.06035986824658355</v>
+      </c>
+      <c r="H91">
+        <v>-0.05175678568555667</v>
+      </c>
+      <c r="I91">
+        <v>-0.02102256684920654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.1249526126893677</v>
+        <v>0.1870263169427332</v>
       </c>
       <c r="C92">
-        <v>-0.05970238223902259</v>
+        <v>-0.3111971543186626</v>
       </c>
       <c r="D92">
-        <v>-0.3279498453508926</v>
+        <v>0.114056703346626</v>
       </c>
       <c r="E92">
-        <v>-0.117073948023184</v>
+        <v>0.1174637131997799</v>
       </c>
       <c r="F92">
-        <v>-0.01597875804526509</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09225641058133567</v>
+      </c>
+      <c r="G92">
+        <v>0.2214186711227755</v>
+      </c>
+      <c r="H92">
+        <v>0.06628602520759211</v>
+      </c>
+      <c r="I92">
+        <v>0.01073691925043426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.0944532165379298</v>
+        <v>0.1305741864351217</v>
       </c>
       <c r="C93">
-        <v>-0.1009726961939152</v>
+        <v>-0.3471118056995693</v>
       </c>
       <c r="D93">
-        <v>-0.3390446003945589</v>
+        <v>0.158115706224091</v>
       </c>
       <c r="E93">
-        <v>-0.148380514113109</v>
+        <v>0.1316869372288799</v>
       </c>
       <c r="F93">
-        <v>-0.0245069238391218</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.03532898597635005</v>
+      </c>
+      <c r="G93">
+        <v>0.01735296752371044</v>
+      </c>
+      <c r="H93">
+        <v>0.04956131881824506</v>
+      </c>
+      <c r="I93">
+        <v>0.04326260332715544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.273595496482022</v>
+        <v>0.2994276280346418</v>
       </c>
       <c r="C94">
-        <v>-0.09236290009976172</v>
+        <v>0.03295362399640247</v>
       </c>
       <c r="D94">
-        <v>-0.02205545227786447</v>
+        <v>0.0273543569211991</v>
       </c>
       <c r="E94">
-        <v>-0.006988853016336785</v>
+        <v>-0.1313744329998508</v>
       </c>
       <c r="F94">
-        <v>-0.2063372349107319</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2709864074434068</v>
+      </c>
+      <c r="G94">
+        <v>0.09293066225825801</v>
+      </c>
+      <c r="H94">
+        <v>-0.2123799955995834</v>
+      </c>
+      <c r="I94">
+        <v>-0.03092696235146819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1529613946866544</v>
+        <v>0.12642479638415</v>
       </c>
       <c r="C95">
-        <v>0.01338151055740901</v>
+        <v>0.11139489637173</v>
       </c>
       <c r="D95">
-        <v>0.1852208491135686</v>
+        <v>0.05037910203234529</v>
       </c>
       <c r="E95">
-        <v>0.001601110315557728</v>
+        <v>-0.0394209611356486</v>
       </c>
       <c r="F95">
-        <v>-0.4894441150681598</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08255733260620694</v>
+      </c>
+      <c r="G95">
+        <v>-0.108653796601995</v>
+      </c>
+      <c r="H95">
+        <v>0.8774782011035054</v>
+      </c>
+      <c r="I95">
+        <v>0.3048236223186009</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2215230147036959</v>
+        <v>0.22447858104741</v>
       </c>
       <c r="C98">
-        <v>-0.0383864890034781</v>
+        <v>-0.003068106584579403</v>
       </c>
       <c r="D98">
-        <v>-0.01220686590955391</v>
+        <v>0.07356109895059826</v>
       </c>
       <c r="E98">
-        <v>-0.08967264943893588</v>
+        <v>0.01911861009155196</v>
       </c>
       <c r="F98">
-        <v>0.07103683308403855</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1886760658909393</v>
+      </c>
+      <c r="G98">
+        <v>-0.3790113588887037</v>
+      </c>
+      <c r="H98">
+        <v>-0.06610861737311693</v>
+      </c>
+      <c r="I98">
+        <v>0.035385644815577</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.003736576904218331</v>
+        <v>0.01360400547139673</v>
       </c>
       <c r="C101">
-        <v>-0.0219330814524213</v>
+        <v>0.02475088434382567</v>
       </c>
       <c r="D101">
-        <v>0.06499414742810168</v>
+        <v>-0.01150380614474849</v>
       </c>
       <c r="E101">
-        <v>0.04032288919122112</v>
+        <v>-0.03830644239692222</v>
       </c>
       <c r="F101">
-        <v>0.02475945736581084</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.07920606043830845</v>
+      </c>
+      <c r="G101">
+        <v>0.1131007118168983</v>
+      </c>
+      <c r="H101">
+        <v>0.009940181186781619</v>
+      </c>
+      <c r="I101">
+        <v>0.119937907018334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09610126711456735</v>
+        <v>0.1139139786385751</v>
       </c>
       <c r="C102">
-        <v>-0.02420237822256203</v>
+        <v>0.03991744131142532</v>
       </c>
       <c r="D102">
-        <v>0.04446604545443013</v>
+        <v>-0.01452129548436196</v>
       </c>
       <c r="E102">
-        <v>0.03718533785399194</v>
+        <v>-0.05795534378747276</v>
       </c>
       <c r="F102">
-        <v>-0.09422455595378786</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1078405796958211</v>
+      </c>
+      <c r="G102">
+        <v>0.02083595336433887</v>
+      </c>
+      <c r="H102">
+        <v>-0.003581479518381934</v>
+      </c>
+      <c r="I102">
+        <v>-0.02089182355470379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02032442070848524</v>
+        <v>0.02748757724756239</v>
       </c>
       <c r="C103">
-        <v>-0.01042036977929832</v>
+        <v>0.006984615488456353</v>
       </c>
       <c r="D103">
-        <v>0.00665002041002239</v>
+        <v>-0.01060487375555466</v>
       </c>
       <c r="E103">
-        <v>0.008000225103354037</v>
+        <v>-0.02020635087514343</v>
       </c>
       <c r="F103">
-        <v>-0.02223209131549725</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01797863735766815</v>
+      </c>
+      <c r="G103">
+        <v>0.01681403550905959</v>
+      </c>
+      <c r="H103">
+        <v>0.008811646163765305</v>
+      </c>
+      <c r="I103">
+        <v>-0.01731134641792011</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
